--- a/biology/Médecine/Marin_Cureau_de_La_Chambre/Marin_Cureau_de_La_Chambre.xlsx
+++ b/biology/Médecine/Marin_Cureau_de_La_Chambre/Marin_Cureau_de_La_Chambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marin Cureau de La Chambre, né à Saint-Jean-d'Assé en 1594 et mort à Paris le 29 novembre 1669, est un médecin et philosophe français, conseiller et médecin de Louis XIV.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ignore tout de sa jeunesse et de ses études. À l’âge adulte, il est médecin au Mans. Vers 1630, il s’établit à Paris, où il se lie avec Pierre Séguier et devient son médecin. Il fréquente les salons de Madeleine de Scudéry et de la marquise de Sablé et impressionne les précieuses par ses qualités de psychologue. Il devient l’un des premiers membres de l’Académie française en 1634[1]. Après avoir été médecin de Louis XIV, peut-être dès 1642, il achète en 1650 la charge de médecin ordinaire du roi. Louis XIV lui témoigne une affection particulière : on rapporte qu’il « était si persuadé du talent de ce médecin habile pour juger du caractère des gens d’après leur physionomie, que ce monarque n’était souvent déterminé dans ses choix qu’après avoir consulté cet oracle[2]. »  En 1666, il devient l’un des premiers membres de l’Académie royale des sciences.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ignore tout de sa jeunesse et de ses études. À l’âge adulte, il est médecin au Mans. Vers 1630, il s’établit à Paris, où il se lie avec Pierre Séguier et devient son médecin. Il fréquente les salons de Madeleine de Scudéry et de la marquise de Sablé et impressionne les précieuses par ses qualités de psychologue. Il devient l’un des premiers membres de l’Académie française en 1634. Après avoir été médecin de Louis XIV, peut-être dès 1642, il achète en 1650 la charge de médecin ordinaire du roi. Louis XIV lui témoigne une affection particulière : on rapporte qu’il « était si persuadé du talent de ce médecin habile pour juger du caractère des gens d’après leur physionomie, que ce monarque n’était souvent déterminé dans ses choix qu’après avoir consulté cet oracle. »  En 1666, il devient l’un des premiers membres de l’Académie royale des sciences.
 Parallèlement à ses activités médicales et mondaines, Marin Cureau de La Chambre mène durant toute sa vie une réflexion philosophique sur l’homme, sa physiologie et sa psychologie. Il dit à propos de ses Caractères des passions, paru en cinq volumes entre 1640 et 1662 :
-« [C’est un livre] où je veux examiner les Passions, les Vertus &amp; les Vices, les Mœurs et les Coûtumes des Peuples, les diverses Inclinations des Hommes, leurs Tempéramens, les Traicts de leur visage ; en un mot où je prétends mettre ce que la Médecine, la Morale &amp; la Politique ont de plus rare et de plus excellent[3]. »
-Son fils Pierre Cureau de La Chambre (1640-1693) lui succède en 1670 à l’Académie française[4]. L’astéroïde (7126) Cureau, découvert en 1991 par Eric Walter Elst, a été nommé après lui.
+« [C’est un livre] où je veux examiner les Passions, les Vertus &amp; les Vices, les Mœurs et les Coûtumes des Peuples, les diverses Inclinations des Hommes, leurs Tempéramens, les Traicts de leur visage ; en un mot où je prétends mettre ce que la Médecine, la Morale &amp; la Politique ont de plus rare et de plus excellent. »
+Son fils Pierre Cureau de La Chambre (1640-1693) lui succède en 1670 à l’Académie française. L’astéroïde (7126) Cureau, découvert en 1991 par Eric Walter Elst, a été nommé après lui.
 Son autre fils François Cureau de La Chambre (1630-1680) fut médecin de la reine et des enfants de France.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouvelles pensées sur les causes de la lumière, du desbordement du Nil et de l'amour d'inclination (1634)
 Nouvelles conjectures sur la digestion (1636)
@@ -562,9 +578,43 @@
 Recueil des épistres, lettres et préfaces de M. de La Chambre (1664) Publié par Pierre Cureau de La Chambre.
 Le Système de l'âme (Paris, Jacques d'Allin, 1664) qui est en réalité la seconde partie de l'Art de connoistre les hommes. Réédition : Fayard, Paris, 2004.
 Discours sur les causes du débordement du Nil. Discours de la nature divine selon la philosophie platonique (1665)
-Discours de l'amitié et de la haine qui se trouvent entre les animaux (1667)
-Éditions modernes
-Les Charactères des passions, Cambridge (Mass.), Omnisys, 1990</t>
+Discours de l'amitié et de la haine qui se trouvent entre les animaux (1667)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marin_Cureau_de_La_Chambre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marin_Cureau_de_La_Chambre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éditions modernes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Charactères des passions, Cambridge (Mass.), Omnisys, 1990</t>
         </is>
       </c>
     </row>
